--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Efna1-Epha3.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Efna1-Epha3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,6 +92,9 @@
   </si>
   <si>
     <t>Epha3</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,185 +525,991 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.3836423893978</v>
+        <v>18.33198466666667</v>
       </c>
       <c r="H2">
-        <v>15.3836423893978</v>
+        <v>54.995954</v>
       </c>
       <c r="I2">
-        <v>0.8808402222010899</v>
+        <v>0.8831875137004506</v>
       </c>
       <c r="J2">
-        <v>0.8808402222010899</v>
+        <v>0.8831875137004505</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>14.7756262918232</v>
+        <v>0.05620966666666666</v>
       </c>
       <c r="N2">
-        <v>14.7756262918232</v>
+        <v>0.168629</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.003368847317172573</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.003368847317172572</v>
       </c>
       <c r="Q2">
-        <v>227.302950952792</v>
+        <v>1.030434747451778</v>
       </c>
       <c r="R2">
-        <v>227.302950952792</v>
+        <v>9.273912727066</v>
       </c>
       <c r="S2">
-        <v>0.8808402222010899</v>
+        <v>0.002975323886090078</v>
       </c>
       <c r="T2">
-        <v>0.8808402222010899</v>
+        <v>0.002975323886090077</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.27957900527732</v>
+        <v>18.33198466666667</v>
       </c>
       <c r="H3">
-        <v>1.27957900527732</v>
+        <v>54.995954</v>
       </c>
       <c r="I3">
-        <v>0.07326643630959009</v>
+        <v>0.8831875137004506</v>
       </c>
       <c r="J3">
-        <v>0.07326643630959009</v>
+        <v>0.8831875137004505</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>14.7756262918232</v>
+        <v>14.85444966666667</v>
       </c>
       <c r="N3">
-        <v>14.7756262918232</v>
+        <v>44.563349</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.8902805491515402</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.8902805491515401</v>
       </c>
       <c r="Q3">
-        <v>18.90658119284054</v>
+        <v>272.3115435211051</v>
       </c>
       <c r="R3">
-        <v>18.90658119284054</v>
+        <v>2450.803891689946</v>
       </c>
       <c r="S3">
-        <v>0.07326643630959009</v>
+        <v>0.7862846647010205</v>
       </c>
       <c r="T3">
-        <v>0.07326643630959009</v>
+        <v>0.7862846647010203</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>18.33198466666667</v>
+      </c>
+      <c r="H4">
+        <v>54.995954</v>
+      </c>
+      <c r="I4">
+        <v>0.8831875137004506</v>
+      </c>
+      <c r="J4">
+        <v>0.8831875137004505</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
+        <v>0.02237433333333333</v>
+      </c>
+      <c r="N4">
+        <v>0.067123</v>
+      </c>
+      <c r="O4">
+        <v>0.001340974200585751</v>
+      </c>
+      <c r="P4">
+        <v>0.001340974200585751</v>
+      </c>
+      <c r="Q4">
+        <v>0.4101659355935556</v>
+      </c>
+      <c r="R4">
+        <v>3.691493420342</v>
+      </c>
+      <c r="S4">
+        <v>0.001184331670151779</v>
+      </c>
+      <c r="T4">
+        <v>0.001184331670151779</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>18.33198466666667</v>
+      </c>
+      <c r="H5">
+        <v>54.995954</v>
+      </c>
+      <c r="I5">
+        <v>0.8831875137004506</v>
+      </c>
+      <c r="J5">
+        <v>0.8831875137004505</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>1.752099666666667</v>
+      </c>
+      <c r="N5">
+        <v>5.256299</v>
+      </c>
+      <c r="O5">
+        <v>0.1050096293307016</v>
+      </c>
+      <c r="P5">
+        <v>0.1050096293307016</v>
+      </c>
+      <c r="Q5">
+        <v>32.11946422380512</v>
+      </c>
+      <c r="R5">
+        <v>289.075178014246</v>
+      </c>
+      <c r="S5">
+        <v>0.09274319344318825</v>
+      </c>
+      <c r="T5">
+        <v>0.09274319344318822</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1.394651</v>
+      </c>
+      <c r="H6">
+        <v>4.183953000000001</v>
+      </c>
+      <c r="I6">
+        <v>0.06719067092662021</v>
+      </c>
+      <c r="J6">
+        <v>0.06719067092662019</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.05620966666666666</v>
+      </c>
+      <c r="N6">
+        <v>0.168629</v>
+      </c>
+      <c r="O6">
+        <v>0.003368847317172573</v>
+      </c>
+      <c r="P6">
+        <v>0.003368847317172572</v>
+      </c>
+      <c r="Q6">
+        <v>0.07839286782633335</v>
+      </c>
+      <c r="R6">
+        <v>0.7055358104370001</v>
+      </c>
+      <c r="S6">
+        <v>0.0002263551114901697</v>
+      </c>
+      <c r="T6">
+        <v>0.0002263551114901696</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1.394651</v>
+      </c>
+      <c r="H7">
+        <v>4.183953000000001</v>
+      </c>
+      <c r="I7">
+        <v>0.06719067092662021</v>
+      </c>
+      <c r="J7">
+        <v>0.06719067092662019</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>14.85444966666667</v>
+      </c>
+      <c r="N7">
+        <v>44.563349</v>
+      </c>
+      <c r="O7">
+        <v>0.8902805491515402</v>
+      </c>
+      <c r="P7">
+        <v>0.8902805491515401</v>
+      </c>
+      <c r="Q7">
+        <v>20.71677308206634</v>
+      </c>
+      <c r="R7">
+        <v>186.4509577385971</v>
+      </c>
+      <c r="S7">
+        <v>0.05981854741041186</v>
+      </c>
+      <c r="T7">
+        <v>0.05981854741041184</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.394651</v>
+      </c>
+      <c r="H8">
+        <v>4.183953000000001</v>
+      </c>
+      <c r="I8">
+        <v>0.06719067092662021</v>
+      </c>
+      <c r="J8">
+        <v>0.06719067092662019</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.02237433333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.067123</v>
+      </c>
+      <c r="O8">
+        <v>0.001340974200585751</v>
+      </c>
+      <c r="P8">
+        <v>0.001340974200585751</v>
+      </c>
+      <c r="Q8">
+        <v>0.03120438635766667</v>
+      </c>
+      <c r="R8">
+        <v>0.280839477219</v>
+      </c>
+      <c r="S8">
+        <v>9.010095623264478E-05</v>
+      </c>
+      <c r="T8">
+        <v>9.010095623264476E-05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.394651</v>
+      </c>
+      <c r="H9">
+        <v>4.183953000000001</v>
+      </c>
+      <c r="I9">
+        <v>0.06719067092662021</v>
+      </c>
+      <c r="J9">
+        <v>0.06719067092662019</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>1.752099666666667</v>
+      </c>
+      <c r="N9">
+        <v>5.256299</v>
+      </c>
+      <c r="O9">
+        <v>0.1050096293307016</v>
+      </c>
+      <c r="P9">
+        <v>0.1050096293307016</v>
+      </c>
+      <c r="Q9">
+        <v>2.443567552216334</v>
+      </c>
+      <c r="R9">
+        <v>21.992107969947</v>
+      </c>
+      <c r="S9">
+        <v>0.007055667448485536</v>
+      </c>
+      <c r="T9">
+        <v>0.007055667448485533</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.03741866666666666</v>
+      </c>
+      <c r="H10">
+        <v>0.112256</v>
+      </c>
+      <c r="I10">
+        <v>0.001802734389114475</v>
+      </c>
+      <c r="J10">
+        <v>0.001802734389114475</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.05620966666666666</v>
+      </c>
+      <c r="N10">
+        <v>0.168629</v>
+      </c>
+      <c r="O10">
+        <v>0.003368847317172573</v>
+      </c>
+      <c r="P10">
+        <v>0.003368847317172572</v>
+      </c>
+      <c r="Q10">
+        <v>0.002103290780444444</v>
+      </c>
+      <c r="R10">
+        <v>0.018929617024</v>
+      </c>
+      <c r="S10">
+        <v>6.073136910343036E-06</v>
+      </c>
+      <c r="T10">
+        <v>6.073136910343035E-06</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.03741866666666666</v>
+      </c>
+      <c r="H11">
+        <v>0.112256</v>
+      </c>
+      <c r="I11">
+        <v>0.001802734389114475</v>
+      </c>
+      <c r="J11">
+        <v>0.001802734389114475</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>14.85444966666667</v>
+      </c>
+      <c r="N11">
+        <v>44.563349</v>
+      </c>
+      <c r="O11">
+        <v>0.8902805491515402</v>
+      </c>
+      <c r="P11">
+        <v>0.8902805491515401</v>
+      </c>
+      <c r="Q11">
+        <v>0.5558337005937778</v>
+      </c>
+      <c r="R11">
+        <v>5.002503305344</v>
+      </c>
+      <c r="S11">
+        <v>0.001604939361915201</v>
+      </c>
+      <c r="T11">
+        <v>0.001604939361915201</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.03741866666666666</v>
+      </c>
+      <c r="H12">
+        <v>0.112256</v>
+      </c>
+      <c r="I12">
+        <v>0.001802734389114475</v>
+      </c>
+      <c r="J12">
+        <v>0.001802734389114475</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.02237433333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.067123</v>
+      </c>
+      <c r="O12">
+        <v>0.001340974200585751</v>
+      </c>
+      <c r="P12">
+        <v>0.001340974200585751</v>
+      </c>
+      <c r="Q12">
+        <v>0.0008372177208888887</v>
+      </c>
+      <c r="R12">
+        <v>0.007534959488</v>
+      </c>
+      <c r="S12">
+        <v>2.417420306311225E-06</v>
+      </c>
+      <c r="T12">
+        <v>2.417420306311225E-06</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.03741866666666666</v>
+      </c>
+      <c r="H13">
+        <v>0.112256</v>
+      </c>
+      <c r="I13">
+        <v>0.001802734389114475</v>
+      </c>
+      <c r="J13">
+        <v>0.001802734389114475</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>1.752099666666667</v>
+      </c>
+      <c r="N13">
+        <v>5.256299</v>
+      </c>
+      <c r="O13">
+        <v>0.1050096293307016</v>
+      </c>
+      <c r="P13">
+        <v>0.1050096293307016</v>
+      </c>
+      <c r="Q13">
+        <v>0.06556123339377777</v>
+      </c>
+      <c r="R13">
+        <v>0.590051100544</v>
+      </c>
+      <c r="S13">
+        <v>0.0001893044699826198</v>
+      </c>
+      <c r="T13">
+        <v>0.0001893044699826197</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.9925623333333333</v>
+      </c>
+      <c r="H14">
+        <v>2.977687</v>
+      </c>
+      <c r="I14">
+        <v>0.0478190809838148</v>
+      </c>
+      <c r="J14">
+        <v>0.04781908098381479</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.05620966666666666</v>
+      </c>
+      <c r="N14">
+        <v>0.168629</v>
+      </c>
+      <c r="O14">
+        <v>0.003368847317172573</v>
+      </c>
+      <c r="P14">
+        <v>0.003368847317172572</v>
+      </c>
+      <c r="Q14">
+        <v>0.05579159790255556</v>
+      </c>
+      <c r="R14">
+        <v>0.502124381123</v>
+      </c>
+      <c r="S14">
+        <v>0.0001610951826819825</v>
+      </c>
+      <c r="T14">
+        <v>0.0001610951826819824</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
         <v>21</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0.801515116739338</v>
-      </c>
-      <c r="H4">
-        <v>0.801515116739338</v>
-      </c>
-      <c r="I4">
-        <v>0.04589334148931994</v>
-      </c>
-      <c r="J4">
-        <v>0.04589334148931994</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>14.7756262918232</v>
-      </c>
-      <c r="N4">
-        <v>14.7756262918232</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>11.8428878321875</v>
-      </c>
-      <c r="R4">
-        <v>11.8428878321875</v>
-      </c>
-      <c r="S4">
-        <v>0.04589334148931994</v>
-      </c>
-      <c r="T4">
-        <v>0.04589334148931994</v>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.9925623333333333</v>
+      </c>
+      <c r="H15">
+        <v>2.977687</v>
+      </c>
+      <c r="I15">
+        <v>0.0478190809838148</v>
+      </c>
+      <c r="J15">
+        <v>0.04781908098381479</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>14.85444966666667</v>
+      </c>
+      <c r="N15">
+        <v>44.563349</v>
+      </c>
+      <c r="O15">
+        <v>0.8902805491515402</v>
+      </c>
+      <c r="P15">
+        <v>0.8902805491515401</v>
+      </c>
+      <c r="Q15">
+        <v>14.74396722152922</v>
+      </c>
+      <c r="R15">
+        <v>132.695704993763</v>
+      </c>
+      <c r="S15">
+        <v>0.04257239767819261</v>
+      </c>
+      <c r="T15">
+        <v>0.0425723976781926</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.9925623333333333</v>
+      </c>
+      <c r="H16">
+        <v>2.977687</v>
+      </c>
+      <c r="I16">
+        <v>0.0478190809838148</v>
+      </c>
+      <c r="J16">
+        <v>0.04781908098381479</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.02237433333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.067123</v>
+      </c>
+      <c r="O16">
+        <v>0.001340974200585751</v>
+      </c>
+      <c r="P16">
+        <v>0.001340974200585751</v>
+      </c>
+      <c r="Q16">
+        <v>0.02220792050011111</v>
+      </c>
+      <c r="R16">
+        <v>0.199871284501</v>
+      </c>
+      <c r="S16">
+        <v>6.412415389501633E-05</v>
+      </c>
+      <c r="T16">
+        <v>6.412415389501633E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.9925623333333333</v>
+      </c>
+      <c r="H17">
+        <v>2.977687</v>
+      </c>
+      <c r="I17">
+        <v>0.0478190809838148</v>
+      </c>
+      <c r="J17">
+        <v>0.04781908098381479</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>1.752099666666667</v>
+      </c>
+      <c r="N17">
+        <v>5.256299</v>
+      </c>
+      <c r="O17">
+        <v>0.1050096293307016</v>
+      </c>
+      <c r="P17">
+        <v>0.1050096293307016</v>
+      </c>
+      <c r="Q17">
+        <v>1.739068133379222</v>
+      </c>
+      <c r="R17">
+        <v>15.651613200413</v>
+      </c>
+      <c r="S17">
+        <v>0.005021463969045193</v>
+      </c>
+      <c r="T17">
+        <v>0.005021463969045192</v>
       </c>
     </row>
   </sheetData>
